--- a/src/zxxt_06_excel.xlsx.w3mi.data.xlsx
+++ b/src/zxxt_06_excel.xlsx.w3mi.data.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\xtt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rows" sheetId="1" r:id="rId1"/>
+    <sheet name="Columns" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_WHOLE_LIST">Rows!$B$3:$D$4</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>{R-TITLE}</t>
   </si>
@@ -44,12 +48,24 @@
   <si>
     <t>{R-T-PAR_DIR}</t>
   </si>
+  <si>
+    <t>{R-T;direction=column}</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Avoid blank cells by using apostrophe to make columns similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shifts by columns and rows should be equal </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,8 +225,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,8 +414,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -557,6 +587,64 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,12 +693,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -971,7 +1066,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -989,14 +1084,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1004,13 +1099,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1018,4 +1113,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/zxxt_06_excel.xlsx.w3mi.data.xlsx
+++ b/src/zxxt_06_excel.xlsx.w3mi.data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rows" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1122,7 +1122,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
